--- a/data/trans_bre/P16_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,7</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>14,75</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,97</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>86,15%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,5%</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>86,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>80,23%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>70,21%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>77,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>99,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39,18%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 12,92</t>
+          <t>5,57; 13,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,83</t>
+          <t>2,68; 10,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,59</t>
+          <t>3,99; 11,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 16,93</t>
+          <t>6,03; 14,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,3</t>
+          <t>9,75; 19,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,4; 143,29</t>
+          <t>-0,44; 8,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,97; 124,5</t>
+          <t>4,75; 14,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,75; 113,03</t>
+          <t>45,87; 152,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,9; 138,48</t>
+          <t>18,76; 116,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 36,77</t>
+          <t>29,82; 122,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>35,68; 130,03</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>53,6; 152,51</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 40,09</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 65,09</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,79%</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>58,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>56,61%</t>
+          <t>61,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>52,15%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 11,76</t>
+          <t>2,38; 11,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,79</t>
+          <t>1,3; 11,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 10,6</t>
+          <t>2,19; 11,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 13,01</t>
+          <t>3,69; 13,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 20,36</t>
+          <t>8,19; 21,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,92; 117,06</t>
+          <t>3,82; 20,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 134,28</t>
+          <t>-6,75; 10,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 107,03</t>
+          <t>11,41; 115,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 109,99</t>
+          <t>7,32; 144,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 110,22</t>
+          <t>12,53; 115,85</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20,64; 114,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,19; 133,8</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 109,05</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 40,26</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>10,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>62,44%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 12,39</t>
+          <t>-7,55; 12,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 19,22</t>
+          <t>-3,98; 17,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 18,46</t>
+          <t>0,21; 19,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 19,59</t>
+          <t>1,75; 19,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-18,05; 13,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-32,83; 111,42</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 171,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 161,08</t>
+          <t>-32,65; 112,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 157,86</t>
+          <t>-18,74; 148,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 160,16</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 168,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-44,38; 60,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,69</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>63,76%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>58,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>55,45%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,84%</t>
+          <t>58,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>60,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>71,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>30,71%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,58</t>
+          <t>4,69; 10,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 9,6</t>
+          <t>3,51; 9,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 9,54</t>
+          <t>4,39; 10,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 13,48</t>
+          <t>6,51; 12,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 9,73</t>
+          <t>8,91; 17,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 98,91</t>
+          <t>1,59; 10,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,39; 99,67</t>
+          <t>3,88; 12,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 88,16</t>
+          <t>33,8; 99,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,7; 107,12</t>
+          <t>24,6; 98,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 43,93</t>
+          <t>29,82; 92,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>40,54; 102,07</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44,18; 109,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 44,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,54; 51,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,22</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,75</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,16%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>63,48%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>70,21%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>77,59%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>99,6%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>16,06%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>39,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>9.222384582222592</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.259031169528705</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.536246047237944</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>10.25127092087642</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>14.38517506545198</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.969520336945689</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>10.19365633005248</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8616191767761693</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6875219281244846</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.687815342004937</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.7410350721383665</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.9504339693623378</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.1606061716691307</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.4033931277684404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 13,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 10,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 11,02</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 14,9</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,75; 19,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,44; 8,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 14,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>45,87; 152,78</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 116,45</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>29,82; 122,42</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>35,68; 130,03</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>53,6; 152,51</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 40,09</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>17,05; 65,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.573136347351497</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.026448549505471</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.725396439056171</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.624816373005786</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>9.219594156731198</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4381243525001341</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>4.954601346387592</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.4586869274294229</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1961088104164767</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2753060010461018</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.3178026106796596</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.4981223801296372</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.01617163628036371</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.1745878883804085</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.24929036857474</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.10724446701476</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.84728823089492</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.16143938187341</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>19.22791920627089</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.917466810188921</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>14.92903719584067</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.527788605960797</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.225322938428636</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.200091574220646</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.282241392367451</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.500606083745113</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.4008958273242741</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.6636384491420613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,27</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,54</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,72</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,74</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58,77%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>61,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>52,3%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>59,53%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>80,41%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>52,15%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 11,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 11,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 11,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 13,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 21,23</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 20,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,75; 10,73</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>11,41; 115,53</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 144,92</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 115,85</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>20,64; 114,82</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>39,19; 133,8</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>11,3; 109,05</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 40,26</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.268218186080451</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.471810994879751</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.30978461446812</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.552449017720342</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>15.06547952155579</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>11.73556097302763</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>2.28464525443956</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5877103622904709</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6304430174041745</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4825250360655246</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5907029285313616</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.8420719772659055</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.5214517096931189</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.07393696614738583</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,07</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,54</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,85%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>42,09%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>62,44%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>64,2%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.383173729122837</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1.231914804382514</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.9394371944417662</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>3.467558691482669</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>8.492420470459244</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.815563123208418</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-7.058960139016135</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1140977943873295</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.0783690973632333</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.03547625933827567</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1898847671750397</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4148810874578065</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.1129504801284911</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.2010861626702234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,55; 12,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 17,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 19,36</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 19,84</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 13,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-32,65; 112,93</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-18,74; 148,9</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 160,16</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>5,5; 168,99</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-44,38; 60,01</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.75278981207179</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>11.31538327020331</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.29772601453424</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.83708485673434</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>21.19236208156946</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>20.9482264202648</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>10.66266518564176</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.155250393725047</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.463768989320083</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.08274454662165</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.133932997079412</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.385422535896873</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.090483733146582</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.3927784133926236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,91</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>63,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>58,48%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>60,8%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>68,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>71,4%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>23,56%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>30,71%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.530680835149508</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.121689098158338</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>9.561745777230207</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.21614749355833</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.6147444237466937</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.2084703551271929</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5062356168025158</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.609149211112783</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.7058379150963573</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.02027240994520202</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 10,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 9,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 10,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 12,83</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8,91; 17,52</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,59; 10,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 12,65</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>33,8; 99,51</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>24,6; 98,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>29,82; 92,32</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>40,54; 102,07</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>44,18; 109,63</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 44,89</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>13,54; 51,94</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.546079915567722</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.758835693213288</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1566882102634123</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>2.267561798746059</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-17.7693212468991</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.3264575137385556</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2011530033745593</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.03136497789556791</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.09581305862132067</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.4424787194892733</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.54661816103609</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.41394404099452</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.64338454286028</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>20.10574422664238</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>13.43680493706508</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.129257426852238</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.742138090264564</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.558955666356114</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.73670104905183</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.6143245209445382</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.7380863089522</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.01481210526216</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.21057168725258</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.684286042443851</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>12.90172392452805</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5.699405117311588</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>8.323924014899886</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6376048451695344</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6313556781269358</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.5821650094974409</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.6751442464953867</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.7125493356384406</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.2356454918699239</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.3125042011683146</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.690287164996453</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.870158855001804</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.014596329256878</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.395937736049194</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>8.778247704323736</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1.585078564746869</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>4.021307960689136</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3379547587692153</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3009578557863026</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2696882653366642</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.3692066347476139</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.438974974521849</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.06298201098451497</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.1435513271958032</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.55577003988082</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.03844728851874</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.95451293902283</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.83406178748693</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>17.28293117394156</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.997401491476781</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>12.59797867362785</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.995137872811283</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.048711534552358</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9055736558069214</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.018477959561991</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.085319991442599</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.4488780048836819</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5224993853111665</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
